--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1032486.617017201</v>
+        <v>1052606.929228222</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453903</v>
+        <v>5562152.400446146</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5050599.152668069</v>
+        <v>4028287.523710871</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7554471.160562234</v>
+        <v>7987407.01135059</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -665,16 +667,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>171.3111895924891</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>360.223481087411</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -902,19 +904,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>25.63856363475654</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>221.1562401660373</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1063,16 +1065,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>106.9706214097036</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1139,13 +1141,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -1193,10 +1195,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>1.567884264210806</v>
+        <v>210.4505203939644</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>193.5927947728083</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>366.4961038326451</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>4.702586979977263</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.36042284486149</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1588,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>193.5927947728083</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.9202602248441235</v>
+        <v>392.1127823488484</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>28.01490760909618</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,10 +1827,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>355.4445328256823</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>31.0999767645892</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>220.2647746254034</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9184445944652</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2245,10 +2247,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>266.272328390067</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>141.8498522607685</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>292.2732044987391</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>334.0755358138493</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>63.68845182694719</v>
+        <v>136.1769805884533</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>334.0755358138493</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>18.16833582460248</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>27.35334490128935</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.7315525093739</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,16 +3003,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>28.0149076090946</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3041,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>20.61048191867884</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>41.97383558581334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
-        <v>37.78331767565417</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>41.24458363092515</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -3487,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>180.6077930059077</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3724,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>174.6213134458583</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3752,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>131.1309806287566</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3907,16 +3909,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>165.421695385058</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>241.4498045374123</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>1.397961020644717</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>362.8936521561746</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>192.9312320650017</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1592.812543720656</v>
+        <v>1302.64465330407</v>
       </c>
       <c r="C2" t="n">
-        <v>1182.687953033927</v>
+        <v>892.5200626173399</v>
       </c>
       <c r="D2" t="n">
-        <v>778.224023126987</v>
+        <v>488.0561327104004</v>
       </c>
       <c r="E2" t="n">
-        <v>778.224023126987</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F2" t="n">
-        <v>778.224023126987</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G2" t="n">
-        <v>369.4957390198192</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>58.5872416475372</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L2" t="n">
-        <v>771.1786414597752</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M2" t="n">
-        <v>1496.195756848048</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N2" t="n">
-        <v>2221.212872236321</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O2" t="n">
-        <v>2864.843728653426</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T2" t="n">
-        <v>2707.155598323719</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U2" t="n">
-        <v>2707.155598323719</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V2" t="n">
-        <v>2357.3180436602</v>
+        <v>2898.206204716348</v>
       </c>
       <c r="W2" t="n">
-        <v>2357.3180436602</v>
+        <v>2514.445903851517</v>
       </c>
       <c r="X2" t="n">
-        <v>1956.674645829152</v>
+        <v>2113.802506020469</v>
       </c>
       <c r="Y2" t="n">
-        <v>1592.812543720656</v>
+        <v>1712.865832968559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>2318.137507400892</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>2184.142436149837</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>2067.24527836923</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>1946.752462361558</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>1837.792582544062</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>1730.802469858401</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>1660.055256894117</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="J3" t="n">
-        <v>882.8728865263604</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="K3" t="n">
-        <v>1338.679142791659</v>
+        <v>2095.112921779656</v>
       </c>
       <c r="L3" t="n">
-        <v>1999.767314710947</v>
+        <v>2756.201093698944</v>
       </c>
       <c r="M3" t="n">
-        <v>2579.517617692877</v>
+        <v>2756.201093698944</v>
       </c>
       <c r="N3" t="n">
-        <v>2579.517617692877</v>
+        <v>2952.279251456333</v>
       </c>
       <c r="O3" t="n">
-        <v>2579.517617692877</v>
+        <v>3656.236342002227</v>
       </c>
       <c r="P3" t="n">
-        <v>2579.517617692877</v>
+        <v>3656.236342002227</v>
       </c>
       <c r="Q3" t="n">
-        <v>2929.36208237686</v>
+        <v>3656.236342002227</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>3577.805851479166</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>3418.463987666174</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>3221.113176804393</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>3007.401649797427</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>2794.168481533755</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>2617.842499672648</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>2458.440540036478</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1147.921091948674</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C4" t="n">
-        <v>976.8277195103904</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D4" t="n">
-        <v>817.3330748333003</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E4" t="n">
-        <v>656.4222597016197</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F4" t="n">
-        <v>491.791133812211</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G4" t="n">
-        <v>324.5407427377544</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H4" t="n">
-        <v>174.9332875432111</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X4" t="n">
-        <v>1560.356496953953</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y4" t="n">
-        <v>1335.620798342718</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1708.546389770622</v>
+        <v>2115.323394029655</v>
       </c>
       <c r="C5" t="n">
-        <v>1298.421799083892</v>
+        <v>1705.198803342926</v>
       </c>
       <c r="D5" t="n">
-        <v>893.957869176953</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="E5" t="n">
-        <v>479.6176536938497</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F5" t="n">
-        <v>58.5872416475372</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G5" t="n">
-        <v>58.5872416475372</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>187.9153826734129</v>
       </c>
       <c r="K5" t="n">
-        <v>596.7467427565767</v>
+        <v>726.0748837824524</v>
       </c>
       <c r="L5" t="n">
-        <v>596.7467427565767</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="M5" t="n">
-        <v>1321.76385814485</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N5" t="n">
-        <v>1394.856875555747</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O5" t="n">
-        <v>2038.487731972852</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P5" t="n">
-        <v>2567.644429892003</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T5" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U5" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V5" t="n">
-        <v>2903.464543351854</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="W5" t="n">
-        <v>2519.704242487022</v>
+        <v>3327.124644577102</v>
       </c>
       <c r="X5" t="n">
-        <v>2519.704242487022</v>
+        <v>2926.481246746055</v>
       </c>
       <c r="Y5" t="n">
-        <v>2118.767569435112</v>
+        <v>2525.544573694145</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K6" t="n">
-        <v>514.3934979128359</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L6" t="n">
-        <v>839.4134544636129</v>
+        <v>573.2709418373363</v>
       </c>
       <c r="M6" t="n">
-        <v>839.4134544636129</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="N6" t="n">
-        <v>839.4134544636129</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O6" t="n">
-        <v>1543.370545009507</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1147.921091948674</v>
+        <v>673.2658822114255</v>
       </c>
       <c r="C7" t="n">
-        <v>976.8277195103904</v>
+        <v>502.172509773142</v>
       </c>
       <c r="D7" t="n">
-        <v>817.3330748333003</v>
+        <v>342.677865096052</v>
       </c>
       <c r="E7" t="n">
-        <v>656.4222597016197</v>
+        <v>181.7670499643715</v>
       </c>
       <c r="F7" t="n">
-        <v>491.791133812211</v>
+        <v>181.7670499643715</v>
       </c>
       <c r="G7" t="n">
-        <v>324.5407427377544</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W7" t="n">
-        <v>1587.986138268387</v>
+        <v>1324.045149357022</v>
       </c>
       <c r="X7" t="n">
-        <v>1560.356496953953</v>
+        <v>1085.701287216705</v>
       </c>
       <c r="Y7" t="n">
-        <v>1335.620798342718</v>
+        <v>860.9655886054699</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287.51597772431</v>
+        <v>1297.032721928134</v>
       </c>
       <c r="C8" t="n">
-        <v>877.39138703758</v>
+        <v>886.9081312414045</v>
       </c>
       <c r="D8" t="n">
-        <v>472.9274571306405</v>
+        <v>482.444201334465</v>
       </c>
       <c r="E8" t="n">
-        <v>58.5872416475372</v>
+        <v>482.444201334465</v>
       </c>
       <c r="F8" t="n">
-        <v>58.5872416475372</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K8" t="n">
-        <v>58.5872416475372</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L8" t="n">
-        <v>771.1786414597752</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M8" t="n">
-        <v>1496.195756848048</v>
+        <v>1927.266335824277</v>
       </c>
       <c r="N8" t="n">
-        <v>2221.212872236321</v>
+        <v>2680.447352462895</v>
       </c>
       <c r="O8" t="n">
-        <v>2864.843728653426</v>
+        <v>3324.07820888</v>
       </c>
       <c r="P8" t="n">
-        <v>2864.843728653426</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q8" t="n">
-        <v>2888.805436687295</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>2707.155598323719</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U8" t="n">
-        <v>2450.095106583229</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.25755191971</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W8" t="n">
-        <v>2098.673830440709</v>
+        <v>2508.833972475581</v>
       </c>
       <c r="X8" t="n">
-        <v>2098.673830440709</v>
+        <v>2108.190574644534</v>
       </c>
       <c r="Y8" t="n">
-        <v>1697.737157388799</v>
+        <v>1707.253901592624</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L9" t="n">
-        <v>719.6754135668255</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M9" t="n">
-        <v>1401.119346952143</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="N9" t="n">
-        <v>1401.119346952143</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="O9" t="n">
-        <v>2105.076437498037</v>
+        <v>1438.76117969248</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>2000.46707218101</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1147.921091948674</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="C10" t="n">
-        <v>976.8277195103904</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="D10" t="n">
-        <v>817.3330748333003</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="E10" t="n">
-        <v>656.4222597016197</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="F10" t="n">
-        <v>491.791133812211</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="G10" t="n">
-        <v>324.5407427377544</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H10" t="n">
-        <v>174.9332875432111</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S10" t="n">
-        <v>1587.986138268387</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T10" t="n">
-        <v>1587.986138268387</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U10" t="n">
-        <v>1587.986138268387</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V10" t="n">
-        <v>1587.986138268387</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W10" t="n">
-        <v>1587.986138268387</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="X10" t="n">
-        <v>1560.356496953953</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="Y10" t="n">
-        <v>1335.620798342718</v>
+        <v>339.6694183175143</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1712.810743970851</v>
+        <v>2184.489266912977</v>
       </c>
       <c r="C11" t="n">
-        <v>1302.686153284121</v>
+        <v>1774.364676226247</v>
       </c>
       <c r="D11" t="n">
-        <v>1302.686153284121</v>
+        <v>1404.166591546807</v>
       </c>
       <c r="E11" t="n">
-        <v>888.3459378010175</v>
+        <v>989.8263760637043</v>
       </c>
       <c r="F11" t="n">
-        <v>467.315525754705</v>
+        <v>568.7959640173918</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K11" t="n">
-        <v>58.5872416475372</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L11" t="n">
-        <v>771.1786414597752</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M11" t="n">
-        <v>1496.195756848048</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N11" t="n">
-        <v>2221.212872236321</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O11" t="n">
-        <v>2864.843728653426</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T11" t="n">
-        <v>2929.36208237686</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U11" t="n">
-        <v>2929.36208237686</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="V11" t="n">
-        <v>2929.36208237686</v>
+        <v>2978.470747442298</v>
       </c>
       <c r="W11" t="n">
-        <v>2924.611994518297</v>
+        <v>2594.710446577466</v>
       </c>
       <c r="X11" t="n">
-        <v>2523.96859668725</v>
+        <v>2594.710446577466</v>
       </c>
       <c r="Y11" t="n">
-        <v>2123.03192363534</v>
+        <v>2594.710446577466</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>514.3934979128359</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L12" t="n">
-        <v>839.4134544636129</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M12" t="n">
-        <v>839.4134544636129</v>
+        <v>1246.547020966179</v>
       </c>
       <c r="N12" t="n">
-        <v>839.4134544636129</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O12" t="n">
-        <v>1543.370545009507</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>218.0818863246272</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="C13" t="n">
-        <v>218.0818863246272</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S13" t="n">
-        <v>1587.986138268387</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T13" t="n">
-        <v>1587.986138268387</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U13" t="n">
-        <v>1305.187990814512</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V13" t="n">
-        <v>1031.302245754033</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W13" t="n">
-        <v>752.2325812629078</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="X13" t="n">
-        <v>513.8887191225913</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="Y13" t="n">
-        <v>289.153020511356</v>
+        <v>339.6694183175143</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2117.27467387779</v>
+        <v>2529.663609512759</v>
       </c>
       <c r="C14" t="n">
-        <v>1707.15008319106</v>
+        <v>2119.539018826029</v>
       </c>
       <c r="D14" t="n">
-        <v>1302.686153284121</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="E14" t="n">
-        <v>888.3459378010175</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F14" t="n">
-        <v>467.315525754705</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>221.3578507065378</v>
       </c>
       <c r="K14" t="n">
-        <v>526.9617039639522</v>
+        <v>759.5173518155773</v>
       </c>
       <c r="L14" t="n">
-        <v>1239.55310377619</v>
+        <v>1472.108751627815</v>
       </c>
       <c r="M14" t="n">
-        <v>1964.570219164463</v>
+        <v>2248.427342619569</v>
       </c>
       <c r="N14" t="n">
-        <v>1964.570219164463</v>
+        <v>3001.608359258187</v>
       </c>
       <c r="O14" t="n">
-        <v>2608.201075581568</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="P14" t="n">
-        <v>2608.201075581568</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V14" t="n">
-        <v>2929.36208237686</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W14" t="n">
-        <v>2929.36208237686</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="X14" t="n">
-        <v>2928.432526594189</v>
+        <v>2939.884789177248</v>
       </c>
       <c r="Y14" t="n">
-        <v>2527.495853542279</v>
+        <v>2939.884789177248</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="M15" t="n">
-        <v>676.1022315638701</v>
+        <v>2033.587426106451</v>
       </c>
       <c r="N15" t="n">
-        <v>1401.119346952143</v>
+        <v>2033.587426106451</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>520.0890202860455</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>520.0890202860455</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>520.0890202860455</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>520.0890202860455</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>491.791133812211</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>324.5407427377544</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W16" t="n">
-        <v>520.0890202860455</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X16" t="n">
-        <v>520.0890202860455</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y16" t="n">
-        <v>520.0890202860455</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>452.2785793327262</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5601,10 +5603,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>749.3736558270855</v>
+        <v>881.9874783658249</v>
       </c>
       <c r="C19" t="n">
-        <v>578.280283388802</v>
+        <v>881.9874783658249</v>
       </c>
       <c r="D19" t="n">
-        <v>418.7856387117121</v>
+        <v>722.4928336887349</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5707,16 +5709,16 @@
         <v>1622.642594311473</v>
       </c>
       <c r="V19" t="n">
-        <v>1622.642594311473</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W19" t="n">
-        <v>1400.152922972682</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X19" t="n">
-        <v>1161.809060832365</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="Y19" t="n">
-        <v>937.0733622211299</v>
+        <v>1069.687184759869</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5777,13 +5779,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V20" t="n">
         <v>4144.752941388363</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C21" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D21" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E21" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F21" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G21" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H21" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>3458.672769375206</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>4332.330861486824</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S21" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T21" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U21" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V21" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W21" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X21" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y21" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>865.7197017227595</v>
+        <v>3463.374005025663</v>
       </c>
       <c r="C22" t="n">
-        <v>694.626329284476</v>
+        <v>3292.280632587379</v>
       </c>
       <c r="D22" t="n">
-        <v>535.131684607386</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E22" t="n">
-        <v>374.2208694757054</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F22" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G22" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T22" t="n">
-        <v>1196.702087168085</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U22" t="n">
-        <v>1196.702087168085</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V22" t="n">
-        <v>1196.702087168085</v>
+        <v>4393.222936662385</v>
       </c>
       <c r="W22" t="n">
-        <v>1196.702087168085</v>
+        <v>4114.153272171259</v>
       </c>
       <c r="X22" t="n">
-        <v>1196.702087168085</v>
+        <v>3875.809410030943</v>
       </c>
       <c r="Y22" t="n">
-        <v>1053.419408116804</v>
+        <v>3651.073711419707</v>
       </c>
     </row>
     <row r="23">
@@ -6014,19 +6016,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4439.978400477999</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3760.992640523532</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X23" t="n">
         <v>3360.349242692484</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>260.4940887650794</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="C25" t="n">
-        <v>260.4940887650794</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="D25" t="n">
-        <v>260.4940887650794</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="E25" t="n">
-        <v>260.4940887650794</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F25" t="n">
-        <v>260.4940887650794</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>1111.429368843485</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>828.6312213896092</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V25" t="n">
-        <v>764.2994518674403</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="W25" t="n">
-        <v>485.2297873763147</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="X25" t="n">
-        <v>485.2297873763147</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.4940887650794</v>
+        <v>3730.621005964372</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3697.79927886809</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6358,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4222.119838211426</v>
+        <v>4069.378320141428</v>
       </c>
       <c r="C28" t="n">
         <v>4051.026465773143</v>
@@ -6406,28 +6408,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>4634.555243216706</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S28" t="n">
-        <v>4634.555243216706</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T28" t="n">
-        <v>4634.555243216706</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="U28" t="n">
-        <v>4634.555243216706</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="V28" t="n">
-        <v>4634.555243216706</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="W28" t="n">
-        <v>4634.555243216706</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="X28" t="n">
-        <v>4634.555243216706</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="Y28" t="n">
-        <v>4409.819544605471</v>
+        <v>4069.378320141428</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6491,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6552,7 +6554,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.6240469015422</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="C31" t="n">
-        <v>745.5306744632587</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="D31" t="n">
-        <v>586.0360297861687</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="E31" t="n">
-        <v>425.1252146544881</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="F31" t="n">
-        <v>260.4940887650794</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J31" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K31" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L31" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M31" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N31" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O31" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P31" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T31" t="n">
-        <v>1350.978107866783</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U31" t="n">
-        <v>1350.978107866783</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V31" t="n">
-        <v>1350.978107866783</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W31" t="n">
-        <v>1071.908443375657</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="X31" t="n">
-        <v>1071.908443375657</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="Y31" t="n">
-        <v>1071.908443375657</v>
+        <v>3565.989880074963</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6783,10 +6785,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N33" t="n">
         <v>1435.775802995229</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.6491574993933</v>
+        <v>3595.492643431779</v>
       </c>
       <c r="C34" t="n">
-        <v>413.6491574993933</v>
+        <v>3595.492643431779</v>
       </c>
       <c r="D34" t="n">
-        <v>254.1545128223033</v>
+        <v>3574.673974827052</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>3413.763159695372</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S34" t="n">
-        <v>1436.250826191383</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T34" t="n">
-        <v>1196.702087168085</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="U34" t="n">
-        <v>1196.702087168085</v>
+        <v>4107.722250632573</v>
       </c>
       <c r="V34" t="n">
-        <v>922.8163421076072</v>
+        <v>3833.836505572095</v>
       </c>
       <c r="W34" t="n">
-        <v>643.7466776164815</v>
+        <v>3833.836505572095</v>
       </c>
       <c r="X34" t="n">
-        <v>643.7466776164815</v>
+        <v>3595.492643431779</v>
       </c>
       <c r="Y34" t="n">
-        <v>601.3488638934377</v>
+        <v>3595.492643431779</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6965,22 +6967,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4182.917908737509</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7020,13 +7022,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3132.785987910289</v>
+        <v>134.9048932774159</v>
       </c>
       <c r="C37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>3594.287766548796</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>3315.218102057671</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>3132.785987910289</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="Y37" t="n">
-        <v>3132.785987910289</v>
+        <v>322.6045996714603</v>
       </c>
     </row>
     <row r="38">
@@ -7251,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>423.0977207349383</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="M39" t="n">
-        <v>1266.074801429505</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="N39" t="n">
-        <v>2139.732893541123</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7354,25 +7356,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>275.6758118380055</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
         <v>93.2436976906228</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>860.3114316096855</v>
+        <v>1607.941219300416</v>
       </c>
       <c r="C41" t="n">
-        <v>860.3114316096855</v>
+        <v>1197.816628613687</v>
       </c>
       <c r="D41" t="n">
-        <v>455.8475017027461</v>
+        <v>793.352698706747</v>
       </c>
       <c r="E41" t="n">
-        <v>455.8475017027461</v>
+        <v>793.352698706747</v>
       </c>
       <c r="F41" t="n">
-        <v>455.8475017027461</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G41" t="n">
-        <v>455.8475017027461</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H41" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K41" t="n">
-        <v>58.5872416475372</v>
+        <v>662.3476926029365</v>
       </c>
       <c r="L41" t="n">
-        <v>710.3964058570388</v>
+        <v>662.3476926029365</v>
       </c>
       <c r="M41" t="n">
-        <v>710.3964058570388</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N41" t="n">
-        <v>1435.413521245312</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O41" t="n">
-        <v>2079.044377662417</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P41" t="n">
-        <v>2608.201075581568</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>2571.87452311782</v>
+        <v>3553.340325376214</v>
       </c>
       <c r="U41" t="n">
-        <v>2571.87452311782</v>
+        <v>3553.340325376214</v>
       </c>
       <c r="V41" t="n">
-        <v>2222.036968454301</v>
+        <v>3203.502770712695</v>
       </c>
       <c r="W41" t="n">
-        <v>1838.276667589469</v>
+        <v>2819.742469847863</v>
       </c>
       <c r="X41" t="n">
-        <v>1437.633269758422</v>
+        <v>2419.099072016816</v>
       </c>
       <c r="Y41" t="n">
-        <v>1036.696596706512</v>
+        <v>2018.162398964906</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>2318.137507400892</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>2184.142436149837</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>2067.24527836923</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>1946.752462361558</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>1837.792582544062</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>1730.802469858401</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>1660.055256894117</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>2095.112921779656</v>
       </c>
       <c r="L42" t="n">
-        <v>58.5872416475372</v>
+        <v>2756.201093698944</v>
       </c>
       <c r="M42" t="n">
-        <v>676.1022315638701</v>
+        <v>2756.201093698944</v>
       </c>
       <c r="N42" t="n">
-        <v>1401.119346952143</v>
+        <v>2756.201093698944</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>3460.158184244838</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>3577.805851479166</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>3418.463987666174</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>3221.113176804393</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>3007.401649797427</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>2794.168481533755</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>2617.842499672648</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>2458.440540036478</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1147.921091948674</v>
+        <v>2647.895796991062</v>
       </c>
       <c r="C43" t="n">
-        <v>976.8277195103904</v>
+        <v>2476.802424552778</v>
       </c>
       <c r="D43" t="n">
-        <v>817.3330748333003</v>
+        <v>2317.307779875688</v>
       </c>
       <c r="E43" t="n">
-        <v>656.4222597016197</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="F43" t="n">
-        <v>491.791133812211</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="G43" t="n">
-        <v>324.5407427377544</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="H43" t="n">
-        <v>174.9332875432111</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>2170.479514149218</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>2325.031841871456</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>2584.928942151516</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>2874.19299859201</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>3155.03178098626</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>3414.592391312734</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>3620.267831562346</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R43" t="n">
-        <v>1502.713419943787</v>
+        <v>3600.523143040257</v>
       </c>
       <c r="S43" t="n">
-        <v>1335.620798342718</v>
+        <v>3414.131374920167</v>
       </c>
       <c r="T43" t="n">
-        <v>1335.620798342718</v>
+        <v>3174.582635896869</v>
       </c>
       <c r="U43" t="n">
-        <v>1335.620798342718</v>
+        <v>2891.784488442993</v>
       </c>
       <c r="V43" t="n">
-        <v>1335.620798342718</v>
+        <v>2647.895796991062</v>
       </c>
       <c r="W43" t="n">
-        <v>1335.620798342718</v>
+        <v>2647.895796991062</v>
       </c>
       <c r="X43" t="n">
-        <v>1335.620798342718</v>
+        <v>2647.895796991062</v>
       </c>
       <c r="Y43" t="n">
-        <v>1335.620798342718</v>
+        <v>2647.895796991062</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>779.6361049660221</v>
+        <v>2090.234309952579</v>
       </c>
       <c r="C44" t="n">
-        <v>779.6361049660221</v>
+        <v>1680.109719265849</v>
       </c>
       <c r="D44" t="n">
-        <v>779.6361049660221</v>
+        <v>1275.645789358909</v>
       </c>
       <c r="E44" t="n">
-        <v>779.6361049660221</v>
+        <v>861.3055738758062</v>
       </c>
       <c r="F44" t="n">
-        <v>778.224023126987</v>
+        <v>440.2751618294938</v>
       </c>
       <c r="G44" t="n">
-        <v>369.4957390198192</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K44" t="n">
-        <v>596.7467427565767</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L44" t="n">
-        <v>596.7467427565767</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M44" t="n">
-        <v>1321.76385814485</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N44" t="n">
-        <v>1435.413521245312</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O44" t="n">
-        <v>2079.044377662417</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P44" t="n">
-        <v>2608.201075581568</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U44" t="n">
-        <v>2314.81403137733</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V44" t="n">
-        <v>1964.976476713811</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W44" t="n">
-        <v>1581.216175848979</v>
+        <v>3302.035560500025</v>
       </c>
       <c r="X44" t="n">
-        <v>1180.572778017932</v>
+        <v>2901.392162668978</v>
       </c>
       <c r="Y44" t="n">
-        <v>779.6361049660221</v>
+        <v>2500.455489617068</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>251.4000992101705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K45" t="n">
-        <v>251.4000992101705</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L45" t="n">
-        <v>809.8539351009829</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="M45" t="n">
-        <v>809.8539351009829</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N45" t="n">
-        <v>809.8539351009829</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O45" t="n">
-        <v>1513.811025646877</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P45" t="n">
-        <v>2075.516918135407</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q45" t="n">
-        <v>2075.516918135407</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>980.6707008742171</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C46" t="n">
-        <v>809.5773284359336</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D46" t="n">
-        <v>650.0826837588436</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E46" t="n">
-        <v>489.1718686271631</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F46" t="n">
-        <v>324.5407427377544</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G46" t="n">
-        <v>324.5407427377544</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H46" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1587.986138268387</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U46" t="n">
-        <v>1587.986138268387</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V46" t="n">
-        <v>1587.986138268387</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.986138268387</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X46" t="n">
-        <v>1393.106105879497</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y46" t="n">
-        <v>1168.370407268261</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L2" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>676.6685272602841</v>
       </c>
       <c r="P2" t="n">
-        <v>158.8194175469794</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8064,22 +8066,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M3" t="n">
-        <v>643.1706503868309</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>251.2521386032338</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>188.6765867334248</v>
       </c>
       <c r="K5" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>166.7436214746972</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
@@ -8237,7 +8239,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,13 +8297,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>384.4175102257753</v>
+        <v>560.7155587704846</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
@@ -8310,7 +8312,7 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>445.4256246670941</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8471,7 +8473,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>114.237549887909</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8538,7 +8540,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>745.891489178132</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
@@ -8547,10 +8549,10 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8690,28 +8692,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>158.8194175469794</v>
+        <v>242.782629421531</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8771,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>384.4175102257753</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>574.4763360814417</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8924,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>222.456857473955</v>
       </c>
       <c r="K14" t="n">
-        <v>562.2419071645454</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -8945,10 +8947,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,19 +9008,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>681.3167988054204</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>145.2440921023702</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9182,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9249,13 +9251,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9492,7 +9494,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629454</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -10200,10 +10202,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10431,13 +10433,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>745.8914891781321</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10668,16 +10670,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>745.8914891781321</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10899,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>389.300405673794</v>
+        <v>373.8003899018191</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>426.9609390751212</v>
       </c>
       <c r="L41" t="n">
-        <v>753.8784932239575</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11139,22 +11141,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>681.3167988054204</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>282.1764805785809</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11300,22 +11302,22 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>207.7099302520355</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
         <v>87.31214281472352</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>620.2093075389424</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447774</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22555,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>175.027989524395</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>36.70382523397984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22790,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -22841,13 +22843,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>320.7006154821275</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>158.7664576901458</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22951,16 +22953,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>58.6072657540084</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -23002,10 +23004,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23027,13 +23029,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23081,10 +23083,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>378.3548135919723</v>
+        <v>169.4721774622187</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23176,22 +23178,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>82.68617307340602</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>33.92318677522496</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>375.2201108762059</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.4622864852425</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
@@ -23431,10 +23433,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>82.68617307340602</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>395.7167036278929</v>
+        <v>4.524181503888599</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23664,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>134.9699070214185</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>49.19646844041381</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>128.2017302157745</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>56.01419322081091</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>88.57144222861982</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>187.9942390719855</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24133,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -24145,7 +24147,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>4.874559219806258</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>80.63848936435443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>54.06597461814499</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>45.84716204233376</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>207.4584357829261</v>
+        <v>134.9699070214199</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>62.56142803888764</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>151.2141028892982</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.066646240065</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -24655,7 +24657,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.09115682073005</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>248.2640602371198</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>137.2892163116402</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25093,7 +25095,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>180.5145060393096</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,13 +25207,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
-        <v>308.5558614412299</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>128.1378550829755</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>55.35263051300575</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>231.4976544219863</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>88.85343858385312</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>19.10615505383083</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>29.69708307246094</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>415.4221469052046</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>41.74734910992152</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>43.02919145391172</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>568334.4368943331</v>
+        <v>642876.4471956451</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>568334.4368943332</v>
+        <v>642876.4471956452</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>568334.4368943332</v>
+        <v>642876.4471956452</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>568334.4368943335</v>
+        <v>642876.4471956453</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>568334.4368943335</v>
+        <v>642876.4471956452</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>739093.7270748181</v>
+        <v>739093.7270748183</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>739093.7270748182</v>
+        <v>739093.7270748181</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>739093.7270748181</v>
+        <v>739093.7270748182</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739093.7270748182</v>
+        <v>739093.7270748183</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>739093.7270748182</v>
+        <v>739093.7270748183</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>568334.436894333</v>
+        <v>642876.447195645</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>568334.4368943332</v>
+        <v>642876.4471956452</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233874.3930239016</v>
+        <v>264543.7418926175</v>
       </c>
       <c r="C2" t="n">
-        <v>233874.3930239015</v>
+        <v>264543.7418926175</v>
       </c>
       <c r="D2" t="n">
-        <v>233874.3930239016</v>
+        <v>264543.7418926176</v>
       </c>
       <c r="E2" t="n">
-        <v>233874.3930239015</v>
+        <v>264543.7418926175</v>
       </c>
       <c r="F2" t="n">
-        <v>233874.3930239015</v>
+        <v>264543.7418926174</v>
       </c>
       <c r="G2" t="n">
+        <v>304131.1009118485</v>
+      </c>
+      <c r="H2" t="n">
+        <v>304131.1009118485</v>
+      </c>
+      <c r="I2" t="n">
         <v>304131.1009118484</v>
       </c>
-      <c r="H2" t="n">
-        <v>304131.1009118484</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>304131.1009118485</v>
-      </c>
-      <c r="J2" t="n">
-        <v>304131.1009118484</v>
       </c>
       <c r="K2" t="n">
         <v>304131.1009118484</v>
@@ -26344,16 +26346,16 @@
         <v>304131.1009118485</v>
       </c>
       <c r="M2" t="n">
+        <v>304131.1009118484</v>
+      </c>
+      <c r="N2" t="n">
         <v>304131.1009118485</v>
       </c>
-      <c r="N2" t="n">
-        <v>304131.1009118484</v>
-      </c>
       <c r="O2" t="n">
-        <v>233874.3930239015</v>
+        <v>264543.7418926174</v>
       </c>
       <c r="P2" t="n">
-        <v>233874.3930239015</v>
+        <v>264543.7418926175</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="C4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798684</v>
       </c>
       <c r="D4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798684</v>
       </c>
       <c r="E4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="F4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="G4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="H4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="I4" t="n">
         <v>30192.61954398331</v>
@@ -26454,10 +26456,10 @@
         <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="P4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798685</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112864.5015267715</v>
+        <v>-160137.137590159</v>
       </c>
       <c r="C6" t="n">
-        <v>132559.6507563235</v>
+        <v>148661.6040218848</v>
       </c>
       <c r="D6" t="n">
-        <v>132559.6507563236</v>
+        <v>148661.6040218849</v>
       </c>
       <c r="E6" t="n">
-        <v>166187.2507563235</v>
+        <v>182289.2040218848</v>
       </c>
       <c r="F6" t="n">
-        <v>166187.2507563235</v>
+        <v>182289.2040218847</v>
       </c>
       <c r="G6" t="n">
-        <v>84338.08669087778</v>
+        <v>136169.8747693592</v>
       </c>
       <c r="H6" t="n">
-        <v>203073.2711229918</v>
+        <v>203073.2711229919</v>
       </c>
       <c r="I6" t="n">
-        <v>203073.2711229919</v>
+        <v>203073.2711229917</v>
       </c>
       <c r="J6" t="n">
-        <v>11460.76795263898</v>
+        <v>-38018.32196474481</v>
       </c>
       <c r="K6" t="n">
         <v>203073.2711229918</v>
@@ -26552,16 +26554,16 @@
         <v>203073.2711229919</v>
       </c>
       <c r="M6" t="n">
+        <v>203073.2711229918</v>
+      </c>
+      <c r="N6" t="n">
         <v>203073.2711229919</v>
       </c>
-      <c r="N6" t="n">
-        <v>203073.2711229918</v>
-      </c>
       <c r="O6" t="n">
-        <v>166187.2507563235</v>
+        <v>182289.2040218848</v>
       </c>
       <c r="P6" t="n">
-        <v>166187.2507563235</v>
+        <v>182289.2040218848</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L2" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>583.478751634501</v>
       </c>
       <c r="P2" t="n">
-        <v>65.17005426609525</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,22 +34786,22 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M3" t="n">
-        <v>585.6063666484134</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>198.0587452094838</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>115.3529954001169</v>
       </c>
       <c r="K5" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>73.83133071807789</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
@@ -34957,7 +34959,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>328.3029864149263</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>352.1354002100487</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35191,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>24.20374548875697</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35258,7 +35260,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>688.3272054397146</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>65.17005426609525</v>
+        <v>149.1332661406468</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>328.3029864149263</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>516.9120523430242</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>149.1332661406471</v>
       </c>
       <c r="K14" t="n">
-        <v>473.1055174913283</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35665,10 +35667,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>623.7525150670029</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>87.49261310237023</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35902,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36212,7 +36214,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629454</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36920,10 +36922,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
         <v>543.5954556656965</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>711.0677682281761</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>333.1858818629449</v>
+        <v>317.6858660909701</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>337.8245494019041</v>
       </c>
       <c r="L41" t="n">
-        <v>658.3930951611127</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>623.7525150670029</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>227.9168455757771</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38020,22 +38022,22 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>114.7976394954162</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.50171506985</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>564.0947837280934</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>18.22667726606031</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1052606.929228222</v>
+        <v>1050098.577502309</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5562152.400446146</v>
+        <v>5562152.400446149</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4028287.523710871</v>
+        <v>4028287.523710873</v>
       </c>
     </row>
     <row r="9">
@@ -670,10 +670,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>171.3111895924891</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>338.1753487462616</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>43.73227063629172</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -901,10 +901,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>20.17855513126557</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -916,7 +916,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>221.1562401660373</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>106.9706214097036</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>230.4591671048108</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>120.4298405707517</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>210.4505203939644</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1353,13 +1353,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>193.5927947728083</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>79.2050748171592</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>366.4961038326451</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1387,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>87.03476832125666</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1590,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>193.5927947728083</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>393.5441613223588</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -1627,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>392.1127823488484</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>31.0999767645892</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -2067,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2134,13 +2134,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V20" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>266.272328390067</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>334.0755358138493</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2535,16 +2535,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>136.1769805884533</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4066896505621</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>18.16833582460248</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2806,10 +2806,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3012,13 +3012,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>28.0149076090946</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>368.180220150888</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>20.61048191867884</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -3249,13 +3249,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4066896505621</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>41.24458363092515</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -3489,7 +3489,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3514,10 +3514,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -3556,10 +3556,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>94.23357055909015</v>
       </c>
       <c r="T41" t="n">
-        <v>131.1309806287566</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3957,16 +3957,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>241.4498045374123</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3991,10 +3991,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>362.8936521561746</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>224.0330894530373</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1302.64465330407</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C2" t="n">
-        <v>892.5200626173399</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D2" t="n">
-        <v>488.0561327104004</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E2" t="n">
-        <v>73.71591722729714</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F2" t="n">
-        <v>73.71591722729714</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G2" t="n">
         <v>73.71591722729714</v>
@@ -4330,25 +4330,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K2" t="n">
-        <v>866.0608898040909</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L2" t="n">
-        <v>1578.652289616329</v>
+        <v>662.3476926029365</v>
       </c>
       <c r="M2" t="n">
-        <v>2354.970880608083</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N2" t="n">
-        <v>3108.151897246701</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O2" t="n">
-        <v>3685.795861364857</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P2" t="n">
-        <v>3685.795861364857</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q2" t="n">
         <v>3685.795861364857</v>
@@ -4357,25 +4357,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T2" t="n">
-        <v>3328.308302105817</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U2" t="n">
-        <v>3071.247810365327</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V2" t="n">
-        <v>2898.206204716348</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W2" t="n">
-        <v>2514.445903851517</v>
+        <v>3344.204600004997</v>
       </c>
       <c r="X2" t="n">
-        <v>2113.802506020469</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y2" t="n">
-        <v>1712.865832968559</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2318.137507400892</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C3" t="n">
-        <v>2184.142436149837</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D3" t="n">
-        <v>2067.24527836923</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E3" t="n">
-        <v>1946.752462361558</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F3" t="n">
-        <v>1837.792582544062</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G3" t="n">
-        <v>1730.802469858401</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H3" t="n">
-        <v>1660.055256894117</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I3" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J3" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K3" t="n">
-        <v>2095.112921779656</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L3" t="n">
-        <v>2756.201093698944</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="M3" t="n">
-        <v>2756.201093698944</v>
+        <v>1372.499254187162</v>
       </c>
       <c r="N3" t="n">
-        <v>2952.279251456333</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O3" t="n">
-        <v>3656.236342002227</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P3" t="n">
-        <v>3656.236342002227</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q3" t="n">
-        <v>3656.236342002227</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R3" t="n">
-        <v>3685.795861364857</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S3" t="n">
-        <v>3577.805851479166</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T3" t="n">
-        <v>3418.463987666174</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U3" t="n">
-        <v>3221.113176804393</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V3" t="n">
-        <v>3007.401649797427</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W3" t="n">
-        <v>2794.168481533755</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X3" t="n">
-        <v>2617.842499672648</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y3" t="n">
-        <v>2458.440540036478</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C4" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D4" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E4" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F4" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
         <v>73.71591722729714</v>
@@ -4515,25 +4515,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1603.114813848147</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T4" t="n">
-        <v>1603.114813848147</v>
+        <v>1372.549034984329</v>
       </c>
       <c r="U4" t="n">
-        <v>1603.114813848147</v>
+        <v>1089.750887530453</v>
       </c>
       <c r="V4" t="n">
-        <v>1603.114813848147</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W4" t="n">
-        <v>1603.114813848147</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X4" t="n">
-        <v>1575.485172533713</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y4" t="n">
-        <v>1350.749473922478</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2115.323394029655</v>
+        <v>1644.89008036026</v>
       </c>
       <c r="C5" t="n">
-        <v>1705.198803342926</v>
+        <v>1234.76548967353</v>
       </c>
       <c r="D5" t="n">
-        <v>1300.734873435986</v>
+        <v>1234.76548967353</v>
       </c>
       <c r="E5" t="n">
-        <v>1300.734873435986</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F5" t="n">
-        <v>879.7044613896738</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G5" t="n">
-        <v>470.976177282506</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H5" t="n">
-        <v>160.067679910224</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I5" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>187.9153826734129</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K5" t="n">
-        <v>726.0748837824524</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L5" t="n">
-        <v>1438.66628359469</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="M5" t="n">
-        <v>1438.66628359469</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N5" t="n">
-        <v>2191.847300233308</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O5" t="n">
-        <v>2835.478156650413</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P5" t="n">
-        <v>3364.634854569565</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q5" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R5" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T5" t="n">
-        <v>3550.514786158958</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U5" t="n">
-        <v>3550.514786158958</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="V5" t="n">
-        <v>3550.514786158958</v>
+        <v>2856.691330907707</v>
       </c>
       <c r="W5" t="n">
-        <v>3327.124644577102</v>
+        <v>2856.691330907707</v>
       </c>
       <c r="X5" t="n">
-        <v>2926.481246746055</v>
+        <v>2456.047933076659</v>
       </c>
       <c r="Y5" t="n">
-        <v>2525.544573694145</v>
+        <v>2055.111260024749</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K6" t="n">
-        <v>73.71591722729714</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L6" t="n">
-        <v>573.2709418373363</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="M6" t="n">
-        <v>1416.248022531903</v>
+        <v>1565.312111749796</v>
       </c>
       <c r="N6" t="n">
-        <v>1416.248022531903</v>
+        <v>1565.312111749796</v>
       </c>
       <c r="O6" t="n">
-        <v>2120.205113077797</v>
+        <v>1565.312111749796</v>
       </c>
       <c r="P6" t="n">
-        <v>2120.205113077797</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q6" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R6" t="n">
         <v>2120.205113077797</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>673.2658822114255</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C7" t="n">
-        <v>502.172509773142</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D7" t="n">
-        <v>342.677865096052</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E7" t="n">
-        <v>181.7670499643715</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F7" t="n">
-        <v>181.7670499643715</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G7" t="n">
         <v>73.71591722729714</v>
@@ -4749,28 +4749,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1603.114813848147</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S7" t="n">
-        <v>1603.114813848147</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T7" t="n">
-        <v>1603.114813848147</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="U7" t="n">
-        <v>1603.114813848147</v>
+        <v>1048.652179949582</v>
       </c>
       <c r="V7" t="n">
-        <v>1603.114813848147</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W7" t="n">
-        <v>1324.045149357022</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X7" t="n">
-        <v>1085.701287216705</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y7" t="n">
-        <v>860.9655886054699</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1297.032721928134</v>
+        <v>2028.971631346729</v>
       </c>
       <c r="C8" t="n">
-        <v>886.9081312414045</v>
+        <v>1618.847040659999</v>
       </c>
       <c r="D8" t="n">
-        <v>482.444201334465</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="E8" t="n">
-        <v>482.444201334465</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F8" t="n">
-        <v>482.444201334465</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G8" t="n">
-        <v>73.71591722729714</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H8" t="n">
         <v>73.71591722729714</v>
@@ -4813,13 +4813,13 @@
         <v>1578.652289616329</v>
       </c>
       <c r="M8" t="n">
-        <v>1927.266335824277</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N8" t="n">
-        <v>2680.447352462895</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O8" t="n">
-        <v>3324.07820888</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="P8" t="n">
         <v>3324.07820888</v>
@@ -4831,25 +4831,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T8" t="n">
-        <v>3328.308302105817</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U8" t="n">
-        <v>3071.247810365327</v>
+        <v>3564.149557758037</v>
       </c>
       <c r="V8" t="n">
-        <v>2721.410255701808</v>
+        <v>3214.312003094518</v>
       </c>
       <c r="W8" t="n">
-        <v>2508.833972475581</v>
+        <v>2830.551702229686</v>
       </c>
       <c r="X8" t="n">
-        <v>2108.190574644534</v>
+        <v>2429.908304398639</v>
       </c>
       <c r="Y8" t="n">
-        <v>1707.253901592624</v>
+        <v>2028.971631346729</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="L9" t="n">
-        <v>734.8040891465854</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M9" t="n">
-        <v>734.8040891465854</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N9" t="n">
-        <v>734.8040891465854</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O9" t="n">
-        <v>1438.76117969248</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P9" t="n">
-        <v>2000.46707218101</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q9" t="n">
         <v>2120.205113077797</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C10" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D10" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E10" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F10" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G10" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H10" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
         <v>73.71591722729714</v>
@@ -4986,28 +4986,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1331.450327403457</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T10" t="n">
-        <v>1091.901588380159</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="U10" t="n">
-        <v>809.1034409262836</v>
+        <v>894.3761592508838</v>
       </c>
       <c r="V10" t="n">
-        <v>535.2176958658056</v>
+        <v>620.4904141904058</v>
       </c>
       <c r="W10" t="n">
-        <v>339.6694183175143</v>
+        <v>341.4207496992801</v>
       </c>
       <c r="X10" t="n">
-        <v>339.6694183175143</v>
+        <v>341.4207496992801</v>
       </c>
       <c r="Y10" t="n">
-        <v>339.6694183175143</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2184.489266912977</v>
+        <v>2529.663609512759</v>
       </c>
       <c r="C11" t="n">
-        <v>1774.364676226247</v>
+        <v>2119.539018826029</v>
       </c>
       <c r="D11" t="n">
-        <v>1404.166591546807</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="E11" t="n">
-        <v>989.8263760637043</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F11" t="n">
-        <v>568.7959640173918</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G11" t="n">
-        <v>160.067679910224</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H11" t="n">
         <v>160.067679910224</v>
@@ -5041,52 +5041,52 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K11" t="n">
-        <v>611.8754183363367</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L11" t="n">
-        <v>1324.466818148575</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M11" t="n">
-        <v>2100.785409140329</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N11" t="n">
-        <v>2853.966425778947</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O11" t="n">
-        <v>3497.597282196052</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P11" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q11" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R11" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T11" t="n">
-        <v>3328.308302105817</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U11" t="n">
-        <v>3328.308302105817</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="V11" t="n">
-        <v>2978.470747442298</v>
+        <v>3340.821462229158</v>
       </c>
       <c r="W11" t="n">
-        <v>2594.710446577466</v>
+        <v>3340.821462229158</v>
       </c>
       <c r="X11" t="n">
-        <v>2594.710446577466</v>
+        <v>3340.821462229158</v>
       </c>
       <c r="Y11" t="n">
-        <v>2594.710446577466</v>
+        <v>2939.884789177248</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K12" t="n">
-        <v>73.71591722729714</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L12" t="n">
-        <v>734.8040891465854</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="M12" t="n">
-        <v>1246.547020966179</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="N12" t="n">
-        <v>2120.205113077797</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="O12" t="n">
-        <v>2120.205113077797</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P12" t="n">
-        <v>2120.205113077797</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q12" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R12" t="n">
         <v>2120.205113077797</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C13" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D13" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E13" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F13" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G13" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
         <v>73.71591722729714</v>
@@ -5223,28 +5223,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U13" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V13" t="n">
-        <v>535.2176958658056</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W13" t="n">
-        <v>339.6694183175143</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X13" t="n">
-        <v>339.6694183175143</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y13" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2529.663609512759</v>
+        <v>1617.81750487658</v>
       </c>
       <c r="C14" t="n">
-        <v>2119.539018826029</v>
+        <v>1207.69291418985</v>
       </c>
       <c r="D14" t="n">
-        <v>1715.075088919089</v>
+        <v>1207.69291418985</v>
       </c>
       <c r="E14" t="n">
-        <v>1300.734873435986</v>
+        <v>793.352698706747</v>
       </c>
       <c r="F14" t="n">
-        <v>879.7044613896738</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G14" t="n">
-        <v>470.976177282506</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H14" t="n">
-        <v>160.067679910224</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I14" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>221.3578507065378</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K14" t="n">
-        <v>759.5173518155773</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L14" t="n">
-        <v>1472.108751627815</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M14" t="n">
-        <v>2248.427342619569</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N14" t="n">
-        <v>3001.608359258187</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O14" t="n">
-        <v>3645.239215675292</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P14" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q14" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R14" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T14" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U14" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V14" t="n">
-        <v>3335.958306701338</v>
+        <v>3200.677231495439</v>
       </c>
       <c r="W14" t="n">
-        <v>3335.958306701338</v>
+        <v>2816.916930630607</v>
       </c>
       <c r="X14" t="n">
-        <v>2939.884789177248</v>
+        <v>2416.27353279956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2939.884789177248</v>
+        <v>2015.33685974765</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K15" t="n">
-        <v>529.5221734925958</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L15" t="n">
-        <v>1190.610345411884</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="M15" t="n">
-        <v>2033.587426106451</v>
+        <v>824.9826106807429</v>
       </c>
       <c r="N15" t="n">
-        <v>2033.587426106451</v>
+        <v>824.9826106807429</v>
       </c>
       <c r="O15" t="n">
-        <v>2120.205113077797</v>
+        <v>1528.939701226637</v>
       </c>
       <c r="P15" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q15" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R15" t="n">
         <v>2120.205113077797</v>
@@ -5460,25 +5460,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T16" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U16" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V16" t="n">
-        <v>535.2176958658056</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W16" t="n">
-        <v>256.1480313746799</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X16" t="n">
-        <v>73.71591722729714</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y16" t="n">
         <v>73.71591722729714</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G17" t="n">
         <v>179.5954603735497</v>
@@ -5548,19 +5548,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>881.9874783658249</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>881.9874783658249</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>722.4928336887349</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1348.756849250995</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1069.687184759869</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>1069.687184759869</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>1069.687184759869</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5782,10 +5782,10 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
         <v>4144.752941388363</v>
@@ -5831,19 +5831,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3463.374005025663</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3292.280632587379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>4393.222936662385</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>4114.153272171259</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>3875.809410030943</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>3651.073711419707</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4630.445217422097</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3360.349242692484</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>3730.621005964372</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>3730.621005964372</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>3730.621005964372</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U26" t="n">
-        <v>4408.238733368956</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V26" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W26" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4069.378320141428</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4576.912166206539</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>4294.114018752663</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>4294.114018752663</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>4294.114018752663</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>4294.114018752663</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>4069.378320141428</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6554,16 +6554,16 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>3594.287766548796</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>3565.989880074963</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>3565.989880074963</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2052.715036606428</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D32" t="n">
-        <v>1648.251106699488</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E32" t="n">
-        <v>1233.910891216385</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3595.492643431779</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3595.492643431779</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3574.673974827052</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3413.763159695372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4390.520398086449</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>4107.722250632573</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>3833.836505572095</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>3833.836505572095</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>3595.492643431779</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>3595.492643431779</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U35" t="n">
-        <v>4408.238733368956</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V35" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>134.9048932774159</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
         <v>93.2436976906228</v>
@@ -7125,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1383.093855288175</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U37" t="n">
-        <v>1100.295707834299</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V37" t="n">
-        <v>826.4099627738212</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W37" t="n">
-        <v>547.3402982826956</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X37" t="n">
-        <v>547.3402982826956</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y37" t="n">
-        <v>322.6045996714603</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
         <v>490.5039577458317</v>
@@ -7204,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7259,16 +7259,16 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
         <v>1760.328909494509</v>
@@ -7362,19 +7362,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1383.093855288175</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U40" t="n">
-        <v>1100.295707834299</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V40" t="n">
-        <v>826.4099627738212</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W40" t="n">
-        <v>547.3402982826956</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X40" t="n">
-        <v>308.996436142379</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y40" t="n">
         <v>93.2436976906228</v>
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1607.941219300416</v>
+        <v>2028.971631346729</v>
       </c>
       <c r="C41" t="n">
-        <v>1197.816628613687</v>
+        <v>1618.847040659999</v>
       </c>
       <c r="D41" t="n">
-        <v>793.352698706747</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="E41" t="n">
-        <v>793.352698706747</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F41" t="n">
         <v>793.352698706747</v>
@@ -7414,49 +7414,49 @@
         <v>327.9013886950514</v>
       </c>
       <c r="K41" t="n">
-        <v>662.3476926029365</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L41" t="n">
-        <v>662.3476926029365</v>
+        <v>1040.492788507289</v>
       </c>
       <c r="M41" t="n">
-        <v>1438.66628359469</v>
+        <v>1816.811379499043</v>
       </c>
       <c r="N41" t="n">
-        <v>2191.847300233308</v>
+        <v>2569.992396137661</v>
       </c>
       <c r="O41" t="n">
-        <v>2835.478156650413</v>
+        <v>3116.082517756141</v>
       </c>
       <c r="P41" t="n">
-        <v>3364.634854569565</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q41" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R41" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>3685.795861364857</v>
+        <v>3590.610436557695</v>
       </c>
       <c r="T41" t="n">
-        <v>3553.340325376214</v>
+        <v>3590.610436557695</v>
       </c>
       <c r="U41" t="n">
-        <v>3553.340325376214</v>
+        <v>3590.610436557695</v>
       </c>
       <c r="V41" t="n">
-        <v>3203.502770712695</v>
+        <v>3240.772881894176</v>
       </c>
       <c r="W41" t="n">
-        <v>2819.742469847863</v>
+        <v>3240.772881894176</v>
       </c>
       <c r="X41" t="n">
-        <v>2419.099072016816</v>
+        <v>2840.129484063129</v>
       </c>
       <c r="Y41" t="n">
-        <v>2018.162398964906</v>
+        <v>2439.192811011219</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2318.137507400892</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>2184.142436149837</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>2067.24527836923</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>1946.752462361558</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>1837.792582544062</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>1730.802469858401</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>1660.055256894117</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>1639.306665514357</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K42" t="n">
-        <v>2095.112921779656</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L42" t="n">
-        <v>2756.201093698944</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="M42" t="n">
-        <v>2756.201093698944</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="N42" t="n">
-        <v>2756.201093698944</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="O42" t="n">
-        <v>3460.158184244838</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P42" t="n">
-        <v>3685.795861364857</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q42" t="n">
-        <v>3685.795861364857</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R42" t="n">
-        <v>3685.795861364857</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>3577.805851479166</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>3418.463987666174</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>3221.113176804393</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>3007.401649797427</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>2794.168481533755</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>2617.842499672648</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>2458.440540036478</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2647.895796991062</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C43" t="n">
-        <v>2476.802424552778</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D43" t="n">
-        <v>2317.307779875688</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>2170.479514149218</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>2325.031841871456</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>2584.928942151516</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>2874.19299859201</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>3155.03178098626</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>3414.592391312734</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>3620.267831562346</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>3600.523143040257</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>3414.131374920167</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>3174.582635896869</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U43" t="n">
-        <v>2891.784488442993</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V43" t="n">
-        <v>2647.895796991062</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W43" t="n">
-        <v>2647.895796991062</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X43" t="n">
-        <v>2647.895796991062</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y43" t="n">
-        <v>2647.895796991062</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2090.234309952579</v>
+        <v>2443.311846829832</v>
       </c>
       <c r="C44" t="n">
-        <v>1680.109719265849</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D44" t="n">
-        <v>1275.645789358909</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E44" t="n">
-        <v>861.3055738758062</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F44" t="n">
-        <v>440.2751618294938</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G44" t="n">
-        <v>73.71591722729714</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H44" t="n">
         <v>73.71591722729714</v>
@@ -7648,22 +7648,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K44" t="n">
-        <v>611.8754183363367</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L44" t="n">
-        <v>1324.466818148575</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M44" t="n">
-        <v>2100.785409140329</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N44" t="n">
-        <v>2853.966425778947</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O44" t="n">
-        <v>3497.597282196052</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P44" t="n">
         <v>3685.795861364857</v>
@@ -7678,22 +7678,22 @@
         <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>3685.795861364857</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U44" t="n">
-        <v>3685.795861364857</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="V44" t="n">
-        <v>3685.795861364857</v>
+        <v>3237.293327359153</v>
       </c>
       <c r="W44" t="n">
-        <v>3302.035560500025</v>
+        <v>2853.533026494321</v>
       </c>
       <c r="X44" t="n">
-        <v>2901.392162668978</v>
+        <v>2853.533026494321</v>
       </c>
       <c r="Y44" t="n">
-        <v>2500.455489617068</v>
+        <v>2853.533026494321</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K45" t="n">
-        <v>529.5221734925958</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L45" t="n">
-        <v>1190.610345411884</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.654755905284</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="N45" t="n">
-        <v>1208.654755905284</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="O45" t="n">
-        <v>1208.654755905284</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P45" t="n">
-        <v>1770.360648393814</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q45" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R45" t="n">
         <v>2120.205113077797</v>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>690.062948947329</v>
       </c>
       <c r="M2" t="n">
         <v>877.4504173780091</v>
@@ -7993,13 +7993,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
-        <v>676.6685272602841</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8063,13 +8063,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N3" t="n">
-        <v>251.2521386032338</v>
+        <v>97.38406848944746</v>
       </c>
       <c r="O3" t="n">
         <v>768.8192472281761</v>
@@ -8081,7 +8081,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>188.6765867334248</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>630.7132023368783</v>
       </c>
       <c r="N5" t="n">
         <v>853.701196452193</v>
@@ -8239,7 +8239,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>560.7155587704846</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>909.0562844399999</v>
@@ -8309,16 +8309,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>231.5212686203674</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8461,16 +8461,16 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>445.4256246670941</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>311.756748769065</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8537,22 +8537,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>348.1042600436691</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>177.6401345621998</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8704,16 +8704,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>743.321953824879</v>
+        <v>676.6685272602841</v>
       </c>
       <c r="P11" t="n">
-        <v>242.782629421531</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M12" t="n">
-        <v>574.4763360814417</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>222.456857473955</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8944,13 +8944,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>161.2487076025728</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>145.2440921023702</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>585.6215843269604</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9421,7 +9421,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9479,22 +9479,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>616.6125049502444</v>
       </c>
       <c r="M27" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10202,19 +10202,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>322.8042452836262</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>745.8914891781321</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
-        <v>745.8914891781321</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>373.8003899018191</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
@@ -10916,10 +10916,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11062,10 +11062,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>426.9609390751212</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11074,16 +11074,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>644.7959590787925</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11153,16 +11153,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>282.1764805785809</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11311,10 +11311,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.321953824879</v>
+        <v>676.6685272602841</v>
       </c>
       <c r="P44" t="n">
-        <v>283.7489381988693</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
         <v>90.03380439915205</v>
@@ -11375,16 +11375,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>75.79096100447774</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22558,10 +22558,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22597,19 +22597,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>175.027989524395</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>41.74734910992146</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,22 +22755,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>193.4209809967732</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22789,10 +22789,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>390.0182581970067</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>158.7664576901458</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22941,22 +22941,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>58.6072657540084</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -22989,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>40.68772050506249</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23032,13 +23032,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>134.0600462523333</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>169.4721774622187</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23196,10 +23196,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>82.68617307340602</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>143.2832668079637</v>
       </c>
     </row>
     <row r="11">
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>33.92318677522496</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>259.3044107956275</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23433,10 +23433,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>82.68617307340602</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>12.57480654548579</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.524181503888599</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="17">
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>128.2017302157745</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V20" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24180,13 +24180,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4.874559219806258</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>102.5059940158878</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>45.84716204233376</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>134.9699070214199</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U26" t="n">
-        <v>3.083197172522915</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>151.2141028892982</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>248.2640602371198</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>37.84312462897458</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>137.2892163116402</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25095,7 +25095,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>3.083197172522915</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>128.1378550829755</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25365,7 +25365,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25639,7 +25639,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>39.69469389474999</v>
       </c>
       <c r="T41" t="n">
-        <v>88.85343858385312</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>29.69708307246094</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="44">
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>41.74734910992152</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25918,22 +25918,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>122.3060896638468</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>642876.4471956451</v>
+        <v>642876.4471956452</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>642876.4471956452</v>
+        <v>642876.4471956451</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>739093.7270748181</v>
+        <v>739093.7270748183</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739093.7270748182</v>
+        <v>739093.7270748183</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739093.7270748181</v>
+        <v>739093.7270748183</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>739093.7270748182</v>
+        <v>739093.7270748183</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>642876.447195645</v>
+        <v>642876.4471956452</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>642876.4471956452</v>
+        <v>642876.4471956453</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>264543.7418926175</v>
       </c>
       <c r="C2" t="n">
-        <v>264543.7418926175</v>
+        <v>264543.7418926174</v>
       </c>
       <c r="D2" t="n">
-        <v>264543.7418926176</v>
+        <v>264543.7418926174</v>
       </c>
       <c r="E2" t="n">
-        <v>264543.7418926175</v>
+        <v>264543.7418926174</v>
       </c>
       <c r="F2" t="n">
         <v>264543.7418926174</v>
       </c>
       <c r="G2" t="n">
+        <v>304131.1009118484</v>
+      </c>
+      <c r="H2" t="n">
+        <v>304131.1009118484</v>
+      </c>
+      <c r="I2" t="n">
         <v>304131.1009118485</v>
       </c>
-      <c r="H2" t="n">
-        <v>304131.1009118485</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>304131.1009118484</v>
-      </c>
-      <c r="J2" t="n">
-        <v>304131.1009118485</v>
       </c>
       <c r="K2" t="n">
         <v>304131.1009118484</v>
       </c>
       <c r="L2" t="n">
+        <v>304131.1009118484</v>
+      </c>
+      <c r="M2" t="n">
         <v>304131.1009118485</v>
       </c>
-      <c r="M2" t="n">
-        <v>304131.1009118484</v>
-      </c>
       <c r="N2" t="n">
-        <v>304131.1009118485</v>
+        <v>304131.1009118486</v>
       </c>
       <c r="O2" t="n">
+        <v>264543.7418926175</v>
+      </c>
+      <c r="P2" t="n">
         <v>264543.7418926174</v>
-      </c>
-      <c r="P2" t="n">
-        <v>264543.7418926175</v>
       </c>
     </row>
     <row r="3">
@@ -26420,10 +26420,10 @@
         <v>26230.44077798685</v>
       </c>
       <c r="C4" t="n">
-        <v>26230.44077798684</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="D4" t="n">
-        <v>26230.44077798684</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="E4" t="n">
         <v>26230.44077798685</v>
@@ -26432,7 +26432,7 @@
         <v>26230.44077798685</v>
       </c>
       <c r="G4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="H4" t="n">
         <v>30192.61954398331</v>
@@ -26456,7 +26456,7 @@
         <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
-        <v>26230.44077798685</v>
+        <v>26230.44077798684</v>
       </c>
       <c r="P4" t="n">
         <v>26230.44077798685</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-160137.137590159</v>
+        <v>-160506.229416233</v>
       </c>
       <c r="C6" t="n">
-        <v>148661.6040218848</v>
+        <v>148292.5121958108</v>
       </c>
       <c r="D6" t="n">
-        <v>148661.6040218849</v>
+        <v>148292.5121958107</v>
       </c>
       <c r="E6" t="n">
-        <v>182289.2040218848</v>
+        <v>181920.1121958108</v>
       </c>
       <c r="F6" t="n">
-        <v>182289.2040218847</v>
+        <v>181920.1121958108</v>
       </c>
       <c r="G6" t="n">
-        <v>136169.8747693592</v>
+        <v>135989.29417671</v>
       </c>
       <c r="H6" t="n">
-        <v>203073.2711229919</v>
+        <v>202892.6905303427</v>
       </c>
       <c r="I6" t="n">
-        <v>203073.2711229917</v>
+        <v>202892.6905303428</v>
       </c>
       <c r="J6" t="n">
-        <v>-38018.32196474481</v>
+        <v>-38198.90255739397</v>
       </c>
       <c r="K6" t="n">
-        <v>203073.2711229918</v>
+        <v>202892.6905303427</v>
       </c>
       <c r="L6" t="n">
-        <v>203073.2711229919</v>
+        <v>202892.6905303427</v>
       </c>
       <c r="M6" t="n">
-        <v>203073.2711229918</v>
+        <v>202892.6905303428</v>
       </c>
       <c r="N6" t="n">
-        <v>203073.2711229919</v>
+        <v>202892.6905303429</v>
       </c>
       <c r="O6" t="n">
-        <v>182289.2040218848</v>
+        <v>181920.1121958108</v>
       </c>
       <c r="P6" t="n">
-        <v>182289.2040218848</v>
+        <v>181920.1121958107</v>
       </c>
     </row>
   </sheetData>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>594.5775508844841</v>
       </c>
       <c r="M2" t="n">
         <v>784.1601929209636</v>
@@ -34713,13 +34713,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
-        <v>583.478751634501</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,13 +34783,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N3" t="n">
-        <v>198.0587452094838</v>
+        <v>44.19067509569746</v>
       </c>
       <c r="O3" t="n">
         <v>711.0677682281761</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>115.3529954001169</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>537.4229778798328</v>
       </c>
       <c r="N5" t="n">
         <v>760.7889056955737</v>
@@ -34959,7 +34959,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>851.4920007015825</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>177.2616336175636</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>352.1354002100487</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>218.1073854881809</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>294.9108666499191</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.947516057361</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35424,16 +35424,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>650.1321781990958</v>
+        <v>583.478751634501</v>
       </c>
       <c r="P11" t="n">
-        <v>149.1332661406468</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M12" t="n">
-        <v>516.9120523430242</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>149.1332661406471</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35664,13 +35664,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>103.6844238641553</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>87.49261310237023</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>529.5070605161113</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36141,7 +36141,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>560.4979811393954</v>
       </c>
       <c r="M27" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>265.0527662836262</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>317.6858660909701</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
@@ -37782,10 +37782,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>337.8245494019041</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37794,16 +37794,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>551.6061834530094</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>227.9168455757771</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38031,10 +38031,10 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.1321781990958</v>
+        <v>583.478751634501</v>
       </c>
       <c r="P44" t="n">
-        <v>190.0995749179851</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>18.22667726606031</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
